--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shy\Desktop\SE2017_1_bigbang\doc\4_ 테스트케이스 및 테스트결과보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>V1.2</t>
-  </si>
-  <si>
-    <t>V1.3</t>
   </si>
   <si>
     <t>서현아</t>
@@ -290,6 +287,10 @@
 입력할 수 있도록 입력란에 입력 형식 예시가
 보여진다. </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -427,7 +428,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -436,6 +437,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -445,12 +459,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -463,7 +488,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -478,7 +503,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -493,7 +518,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -509,7 +534,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -518,68 +543,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -591,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,38 +586,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -661,17 +604,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,212 +979,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="40.58203125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:5" ht="39.5" x14ac:dyDescent="0.95">
+      <c r="C1" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.45">
-      <c r="D4" s="22" t="s">
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="2:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="E4" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+    <row r="5" spans="2:5" ht="2.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="16" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="2:5" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A9" s="24">
+    <row r="9" spans="2:5" ht="68" x14ac:dyDescent="0.45">
+      <c r="B9" s="17">
         <v>42892</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>36</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A10" s="24">
+      <c r="E9" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="B10" s="17">
         <v>42892</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="68" x14ac:dyDescent="0.45">
+      <c r="B11" s="17">
+        <v>42892</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A11" s="24">
+      <c r="E11" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="68.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="20">
         <v>42892</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="C12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A12" s="24">
-        <v>42892</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="9"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="9"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="9"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:D6"/>
+  <mergeCells count="2">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1276,34 +1148,34 @@
       <c r="C5" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
